--- a/东奥会计专业/税务/增值税发票明细表.xlsx
+++ b/东奥会计专业/税务/增值税发票明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="进项发票明细" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">进项发票明细!$A$2:$O$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="116">
   <si>
     <t xml:space="preserve">       </t>
   </si>
@@ -699,11 +699,74 @@
     <t>2021年1月</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>06596732</t>
+  </si>
+  <si>
+    <t>06596731</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>06596733</t>
+  </si>
+  <si>
+    <t>00016322</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>11480597</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>01971924</t>
+  </si>
+  <si>
+    <t>01971925</t>
+  </si>
+  <si>
+    <t>01971926</t>
+  </si>
+  <si>
+    <t>01971927</t>
+  </si>
+  <si>
+    <t>01971928</t>
+  </si>
+  <si>
+    <t>01932007</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10075968</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>09897521</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>09897522</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>09897523</t>
+  </si>
+  <si>
+    <t>09897524</t>
+  </si>
+  <si>
+    <t>作废</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>09965264</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
@@ -711,7 +774,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,7 +849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,6 +865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,13 +1081,30 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1096,7 +1182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1170,7 +1256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1205,7 +1290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1381,15 +1465,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="20" customWidth="1"/>
     <col min="2" max="2" width="36.875" style="21" customWidth="1"/>
@@ -1405,12 +1489,12 @@
     <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="19" customFormat="1" ht="23.1" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="22.5" customHeight="1">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1487,10 +1571,10 @@
       </c>
       <c r="M3" s="39">
         <f ca="1">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H3</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="22.5" customHeight="1">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -1525,11 +1609,11 @@
         <v>16</v>
       </c>
       <c r="M4" s="39">
-        <f t="shared" ref="M4:M26" ca="1" si="1">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H4</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="M4:M41" ca="1" si="1">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H4</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -1565,10 +1649,10 @@
       </c>
       <c r="M5" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -1604,10 +1688,10 @@
       </c>
       <c r="M6" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -1643,10 +1727,10 @@
       </c>
       <c r="M7" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="22.5" customHeight="1">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -1682,10 +1766,10 @@
       </c>
       <c r="M8" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -1721,10 +1805,10 @@
       </c>
       <c r="M9" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22.5" customHeight="1">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -1760,10 +1844,10 @@
       </c>
       <c r="M10" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -1799,10 +1883,10 @@
       </c>
       <c r="M11" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -1838,10 +1922,10 @@
       </c>
       <c r="M12" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -1861,7 +1945,7 @@
         <v>170.38</v>
       </c>
       <c r="G13" s="36">
-        <f t="shared" ref="G13:G25" si="2">F13/E13</f>
+        <f t="shared" ref="G13:G36" si="2">F13/E13</f>
         <v>5.9999929569280935E-2</v>
       </c>
       <c r="H13" s="37">
@@ -1877,10 +1961,10 @@
       </c>
       <c r="M13" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -1916,10 +2000,10 @@
       </c>
       <c r="M14" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -1955,10 +2039,10 @@
       </c>
       <c r="M15" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -1994,10 +2078,10 @@
       </c>
       <c r="M16" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -2033,10 +2117,10 @@
       </c>
       <c r="M17" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -2072,10 +2156,10 @@
       </c>
       <c r="M18" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -2111,10 +2195,10 @@
       </c>
       <c r="M19" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -2150,10 +2234,10 @@
       </c>
       <c r="M20" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -2189,10 +2273,10 @@
       </c>
       <c r="M21" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -2229,10 +2313,10 @@
       </c>
       <c r="M22" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="32">
         <v>21</v>
       </c>
@@ -2268,10 +2352,10 @@
       </c>
       <c r="M23" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="32">
         <v>22</v>
       </c>
@@ -2307,10 +2391,10 @@
       </c>
       <c r="M24" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="32">
         <v>23</v>
       </c>
@@ -2346,166 +2430,559 @@
       </c>
       <c r="M25" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="32">
         <v>24</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="B26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="58">
+        <v>94339.62</v>
+      </c>
+      <c r="F26" s="35">
+        <v>5660.38</v>
+      </c>
+      <c r="G26" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H26" s="37">
+        <v>44245</v>
+      </c>
       <c r="I26" s="37"/>
       <c r="J26" s="44"/>
       <c r="K26" s="45"/>
       <c r="L26" s="32"/>
       <c r="M26" s="39">
         <f t="shared" ca="1" si="1"/>
-        <v>44249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="58">
+        <v>94339.62</v>
+      </c>
+      <c r="F27" s="35">
+        <v>5660.38</v>
+      </c>
+      <c r="G27" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H27" s="37">
+        <v>44245</v>
+      </c>
       <c r="I27" s="37"/>
       <c r="J27" s="44"/>
       <c r="K27" s="45"/>
       <c r="L27" s="32"/>
-      <c r="M27" s="39"/>
-    </row>
-    <row r="28" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="B28" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="35">
+        <v>78868.41</v>
+      </c>
+      <c r="E28" s="58">
+        <v>74404.160000000003</v>
+      </c>
+      <c r="F28" s="35">
+        <v>4464.25</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" si="2"/>
+        <v>6.000000537604349E-2</v>
+      </c>
+      <c r="H28" s="37">
+        <v>44245</v>
+      </c>
       <c r="I28" s="37"/>
       <c r="J28" s="44"/>
       <c r="K28" s="45"/>
       <c r="L28" s="32"/>
-      <c r="M28" s="39"/>
-    </row>
-    <row r="29" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M28" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="35">
+        <v>989.81</v>
+      </c>
+      <c r="E29" s="58">
+        <v>933.78</v>
+      </c>
+      <c r="F29" s="35">
+        <v>56.03</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0003426931397118E-2</v>
+      </c>
+      <c r="H29" s="37">
+        <v>44247</v>
+      </c>
       <c r="I29" s="37"/>
       <c r="J29" s="44"/>
       <c r="K29" s="45"/>
       <c r="L29" s="32"/>
-      <c r="M29" s="39"/>
-    </row>
-    <row r="30" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+      <c r="M29" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A30" s="32">
+        <v>28</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
       <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="D30" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="58">
+        <v>94339.62</v>
+      </c>
+      <c r="F30" s="35">
+        <v>5660.38</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H30" s="37">
+        <v>44247</v>
+      </c>
       <c r="I30" s="37"/>
       <c r="J30" s="44"/>
       <c r="K30" s="45"/>
       <c r="L30" s="32"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="M30" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A31" s="32">
+        <v>29</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="35">
+        <v>37426.6</v>
+      </c>
+      <c r="E31" s="58">
+        <v>35308.11</v>
+      </c>
+      <c r="F31" s="35">
+        <v>2118.4899999999998</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="2"/>
+        <v>6.000009629515711E-2</v>
+      </c>
+      <c r="H31" s="37">
+        <v>44247</v>
+      </c>
       <c r="I31" s="37"/>
       <c r="J31" s="44"/>
       <c r="K31" s="45"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="39"/>
-    </row>
-    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="M31" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A32" s="32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="D32" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="35">
+        <v>94339.62</v>
+      </c>
+      <c r="F32" s="35">
+        <v>5660.38</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="44"/>
       <c r="K32" s="45"/>
       <c r="L32" s="32"/>
-      <c r="M32" s="39"/>
-    </row>
-    <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="M32" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A33" s="32">
+        <v>31</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>24</v>
+      </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="D33" s="35">
+        <v>77897.05</v>
+      </c>
+      <c r="E33" s="35">
+        <v>73487.78</v>
+      </c>
+      <c r="F33" s="35">
+        <f>D33-E33</f>
+        <v>4409.2700000000041</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000043544654692E-2</v>
+      </c>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
       <c r="J33" s="44"/>
       <c r="K33" s="45"/>
       <c r="L33" s="32"/>
-      <c r="M33" s="39"/>
+      <c r="M33" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A34" s="32">
+        <v>32</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="35">
+        <v>25600</v>
+      </c>
+      <c r="E34" s="35">
+        <v>24150.94</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1449.06</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000149062520963E-2</v>
+      </c>
+      <c r="H34" s="37">
+        <v>44231</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A35" s="32">
+        <v>33</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="35">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="35">
+        <v>7452.83</v>
+      </c>
+      <c r="F35" s="35">
+        <v>447.17</v>
+      </c>
+      <c r="G35" s="36">
+        <f t="shared" si="2"/>
+        <v>6.0000026835443719E-2</v>
+      </c>
+      <c r="H35" s="37">
+        <v>44234</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A36" s="32">
+        <v>34</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="35">
+        <v>188.52</v>
+      </c>
+      <c r="E36" s="35">
+        <v>177.85</v>
+      </c>
+      <c r="F36" s="35">
+        <v>10.67</v>
+      </c>
+      <c r="G36" s="36">
+        <f t="shared" si="2"/>
+        <v>5.9994377284228281E-2</v>
+      </c>
+      <c r="H36" s="37">
+        <v>44255</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A37" s="32">
+        <v>35</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A38" s="32">
+        <v>36</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="39">
+        <f t="shared" ca="1" si="1"/>
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="M1:M2">
-    <cfRule type="cellIs" dxfId="7" priority="2191" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="2193" stopIfTrue="1" operator="between">
       <formula>151</formula>
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2192" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2194" stopIfTrue="1" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M33">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="M21:M41">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="between">
       <formula>151</formula>
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M1048576 M3:M20">
-    <cfRule type="cellIs" dxfId="3" priority="1251" stopIfTrue="1" operator="between">
+  <conditionalFormatting sqref="M45:M1048576 M3:M20">
+    <cfRule type="cellIs" dxfId="5" priority="1253" stopIfTrue="1" operator="between">
       <formula>151</formula>
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1252" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1254" stopIfTrue="1" operator="greaterThan">
+      <formula>180</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M44">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="between">
+      <formula>151</formula>
+      <formula>180</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2515,14 +2992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.125" style="20" customWidth="1"/>
     <col min="2" max="2" width="36.875" style="21" customWidth="1"/>
@@ -2534,12 +3011,12 @@
     <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="19" customFormat="1" ht="23.1" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +3045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -2597,10 +3074,10 @@
       </c>
       <c r="I3" s="39">
         <f ca="1">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H3</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.5" customHeight="1">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -2629,10 +3106,10 @@
       </c>
       <c r="I4" s="39">
         <f t="shared" ref="I4:I12" ca="1" si="2">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H4</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.5" customHeight="1">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -2661,10 +3138,10 @@
       </c>
       <c r="I5" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -2692,10 +3169,10 @@
       </c>
       <c r="I6" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -2724,10 +3201,10 @@
       </c>
       <c r="I7" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22.5" customHeight="1">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -2756,10 +3233,10 @@
       </c>
       <c r="I8" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -2788,10 +3265,10 @@
       </c>
       <c r="I9" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="A10" s="32">
         <v>8</v>
       </c>
@@ -2820,10 +3297,10 @@
       </c>
       <c r="I10" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
       <c r="A11" s="32">
         <v>9</v>
       </c>
@@ -2852,10 +3329,10 @@
       </c>
       <c r="I11" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1">
       <c r="A12" s="32">
         <v>10</v>
       </c>
@@ -2883,10 +3360,10 @@
       </c>
       <c r="I12" s="39">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1">
       <c r="A13" s="32">
         <v>11</v>
       </c>
@@ -2914,10 +3391,10 @@
       </c>
       <c r="I13" s="39">
         <f t="shared" ref="I13:I25" ca="1" si="3">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H13</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1">
       <c r="A14" s="32">
         <v>12</v>
       </c>
@@ -2934,7 +3411,7 @@
       <c r="H14" s="55"/>
       <c r="I14" s="56"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1">
       <c r="A15" s="32">
         <v>13</v>
       </c>
@@ -2951,7 +3428,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="56"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1">
       <c r="A16" s="32">
         <v>14</v>
       </c>
@@ -2979,10 +3456,10 @@
       </c>
       <c r="I16" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1">
       <c r="A17" s="32">
         <v>15</v>
       </c>
@@ -3010,10 +3487,10 @@
       </c>
       <c r="I17" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1">
       <c r="A18" s="32">
         <v>16</v>
       </c>
@@ -3041,10 +3518,10 @@
       </c>
       <c r="I18" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1">
       <c r="A19" s="32">
         <v>17</v>
       </c>
@@ -3073,10 +3550,10 @@
       </c>
       <c r="I19" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1">
       <c r="A20" s="32">
         <v>18</v>
       </c>
@@ -3097,7 +3574,7 @@
         <v>5660.38</v>
       </c>
       <c r="G20" s="36">
-        <f t="shared" ref="G20:G27" si="6">F20/E20</f>
+        <f t="shared" ref="G20:G38" si="6">F20/E20</f>
         <v>6.0000029680000837E-2</v>
       </c>
       <c r="H20" s="37">
@@ -3105,10 +3582,10 @@
       </c>
       <c r="I20" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1">
       <c r="A21" s="32">
         <v>19</v>
       </c>
@@ -3137,10 +3614,10 @@
       </c>
       <c r="I21" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1">
       <c r="A22" s="32">
         <v>20</v>
       </c>
@@ -3168,10 +3645,10 @@
       </c>
       <c r="I22" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1">
       <c r="A23" s="32">
         <v>23</v>
       </c>
@@ -3199,7 +3676,7 @@
       </c>
       <c r="I23" s="56"/>
     </row>
-    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="22.5" customHeight="1">
       <c r="A24" s="32">
         <v>21</v>
       </c>
@@ -3227,10 +3704,10 @@
       </c>
       <c r="I24" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="22.5" customHeight="1">
       <c r="A25" s="32">
         <v>22</v>
       </c>
@@ -3258,10 +3735,10 @@
       </c>
       <c r="I25" s="39">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="22.5" customHeight="1">
       <c r="A26" s="32">
         <v>24</v>
       </c>
@@ -3289,7 +3766,7 @@
       </c>
       <c r="I26" s="56"/>
     </row>
-    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="22.5" customHeight="1">
       <c r="A27" s="32">
         <v>25</v>
       </c>
@@ -3316,138 +3793,371 @@
         <v>44223</v>
       </c>
       <c r="I27" s="39">
-        <f t="shared" ref="I27" ca="1" si="9">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H27</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="I27:I34" ca="1" si="9">DATE(YEAR(NOW()),MONTH(NOW()),DAY(NOW()))-H27</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1">
       <c r="A28" s="32">
         <v>26</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="58">
+        <f t="shared" ref="E28:E30" si="10">D28-F28</f>
+        <v>94339.62</v>
+      </c>
+      <c r="F28" s="38">
+        <v>5660.38</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H28" s="37">
+        <v>44249</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1">
       <c r="A29" s="32">
         <v>27</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="39"/>
-    </row>
-    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="10"/>
+        <v>94339.62</v>
+      </c>
+      <c r="F29" s="38">
+        <v>5660.38</v>
+      </c>
+      <c r="G29" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H29" s="37">
+        <v>44249</v>
+      </c>
+      <c r="I29" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="22.5" customHeight="1">
       <c r="A30" s="32">
         <v>28</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="39"/>
-    </row>
-    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E30" s="58">
+        <f t="shared" si="10"/>
+        <v>94339.62</v>
+      </c>
+      <c r="F30" s="38">
+        <v>5660.38</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H30" s="37">
+        <v>44249</v>
+      </c>
+      <c r="I30" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="22.5" customHeight="1">
       <c r="A31" s="32">
         <v>29</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="39"/>
-    </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="39"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
+      <c r="B31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E31" s="58">
+        <f t="shared" ref="E31" si="11">D31-F31</f>
+        <v>94339.62</v>
+      </c>
+      <c r="F31" s="38">
+        <v>5660.38</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H31" s="37">
+        <v>44249</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A32" s="32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="35">
+        <v>34753.230000000003</v>
+      </c>
+      <c r="E32" s="58">
+        <v>32786.07</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1967.16</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="6"/>
+        <v>5.9999871896814716E-2</v>
+      </c>
+      <c r="H32" s="37">
+        <v>44249</v>
+      </c>
+      <c r="I32" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A33" s="32">
+        <v>31</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="35">
+        <v>14418.84</v>
+      </c>
+      <c r="E33" s="35">
+        <v>13602.68</v>
+      </c>
+      <c r="F33" s="35">
+        <v>816.16</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="6"/>
+        <v>5.9999941188059999E-2</v>
+      </c>
+      <c r="H33" s="37">
+        <v>44253</v>
+      </c>
+      <c r="I33" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A34" s="32">
+        <v>32</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="35">
+        <v>18212.009999999998</v>
+      </c>
+      <c r="E34" s="35">
+        <v>17181.14</v>
+      </c>
+      <c r="F34" s="35">
+        <v>1030.8699999999999</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000093125368859E-2</v>
+      </c>
+      <c r="H34" s="37">
+        <v>44253</v>
+      </c>
+      <c r="I34" s="39">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A35" s="32">
+        <v>33</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="56"/>
+    </row>
+    <row r="36" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A36" s="32">
+        <v>34</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="56"/>
+    </row>
+    <row r="37" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A37" s="32">
+        <v>35</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="D37" s="35">
+        <v>100000</v>
+      </c>
+      <c r="E37" s="38">
+        <f t="shared" ref="E37" si="12">D37-F37</f>
+        <v>94339.62</v>
+      </c>
+      <c r="F37" s="38">
+        <v>5660.38</v>
+      </c>
+      <c r="G37" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0000029680000837E-2</v>
+      </c>
+      <c r="H37" s="37">
+        <v>44253</v>
+      </c>
       <c r="I37" s="39"/>
     </row>
-    <row r="38" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
+    <row r="38" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A38" s="32">
+        <v>36</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>21</v>
+      </c>
       <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="35">
+        <v>87779.32</v>
+      </c>
+      <c r="E38" s="35">
+        <v>82810.679999999993</v>
+      </c>
+      <c r="F38" s="35">
+        <v>4968.6400000000003</v>
+      </c>
+      <c r="G38" s="36">
+        <f t="shared" si="6"/>
+        <v>5.9999990339410336E-2</v>
+      </c>
+      <c r="H38" s="37">
+        <v>44253</v>
+      </c>
       <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3466,14 +4176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="17.125" customWidth="1"/>
@@ -3485,7 +4195,7 @@
     <col min="10" max="10" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -3517,7 +4227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -3546,7 +4256,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="32.1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
@@ -3572,7 +4282,7 @@
       </c>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="32.1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
@@ -3600,7 +4310,7 @@
       </c>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="32.1" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
@@ -3625,7 +4335,7 @@
       </c>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="32.1" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3637,7 +4347,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="32.1" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3649,7 +4359,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="32.1" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3661,7 +4371,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="32.1" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3673,7 +4383,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="32.1" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -3696,7 +4406,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="32.1" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3708,19 +4418,19 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3729,19 +4439,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="14"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3755,14 +4465,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
     <col min="2" max="3" width="17.125" customWidth="1"/>
@@ -3773,7 +4483,7 @@
     <col min="9" max="9" width="66.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -3802,7 +4512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="32.1" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
@@ -3827,7 +4537,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>90</v>
       </c>
@@ -3853,7 +4563,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="32.1" customHeight="1">
       <c r="A4" s="57" t="s">
         <v>91</v>
       </c>
@@ -3869,7 +4579,7 @@
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="32.1" customHeight="1">
       <c r="A5" s="57" t="s">
         <v>92</v>
       </c>
@@ -3885,7 +4595,7 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="32.1" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>93</v>
       </c>
@@ -3901,7 +4611,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="32.1" customHeight="1">
       <c r="A7" s="57" t="s">
         <v>94</v>
       </c>
@@ -3917,7 +4627,7 @@
       </c>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="32.1" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>95</v>
       </c>
@@ -3933,7 +4643,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="32.1" customHeight="1">
       <c r="A9" s="57" t="s">
         <v>96</v>
       </c>
@@ -3949,7 +4659,7 @@
       </c>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="32.1" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -3971,7 +4681,7 @@
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="32.1" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3982,19 +4692,19 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4003,19 +4713,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
